--- a/backend/jupyter/action_volume/data/player_action_hyper.xlsx
+++ b/backend/jupyter/action_volume/data/player_action_hyper.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\okany\Documents\GitHub\football-simulation-game\backend\jupyter\action_volume\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9568895-9939-40ED-AC9B-CF74F31EB4AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B0B6F6-9689-4AC9-8887-01DC5F5DDF94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{80BC0565-8455-4789-85AC-BADDCAB4FB5F}"/>
+    <workbookView xWindow="0" yWindow="1830" windowWidth="23445" windowHeight="12960" xr2:uid="{80BC0565-8455-4789-85AC-BADDCAB4FB5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,9 +65,6 @@
     <t>MAE</t>
   </si>
   <si>
-    <t>Passing_Volume</t>
-  </si>
-  <si>
     <t>Big5@Players@Passing@2022_2023.csv</t>
   </si>
   <si>
@@ -83,9 +80,6 @@
     <t>Att</t>
   </si>
   <si>
-    <t>Shooting_Volume</t>
-  </si>
-  <si>
     <t>Big5@Players@Shooting@2022_2023.csv</t>
   </si>
   <si>
@@ -101,9 +95,6 @@
     <t>Sh</t>
   </si>
   <si>
-    <t>Dribbling_Volume</t>
-  </si>
-  <si>
     <t>Big5@Players@Dribbling@2022_2023.csv</t>
   </si>
   <si>
@@ -116,24 +107,15 @@
     <t>Dribble/90</t>
   </si>
   <si>
-    <t>Passing_Accuracy</t>
-  </si>
-  <si>
     <t>Pass_Accuracy</t>
   </si>
   <si>
-    <t>Shooting_Accuracy</t>
-  </si>
-  <si>
     <t>0.1</t>
   </si>
   <si>
     <t>Shot_Accuracy</t>
   </si>
   <si>
-    <t>Dribbling_Accuracy</t>
-  </si>
-  <si>
     <t>Take-Ons</t>
   </si>
   <si>
@@ -147,6 +129,24 @@
   </si>
   <si>
     <t>target_volume</t>
+  </si>
+  <si>
+    <t>pass_Volume</t>
+  </si>
+  <si>
+    <t>shot_Volume</t>
+  </si>
+  <si>
+    <t>dribble_Volume</t>
+  </si>
+  <si>
+    <t>pass_Accuracy</t>
+  </si>
+  <si>
+    <t>shot_Accuracy</t>
+  </si>
+  <si>
+    <t>dribble_Accuracy</t>
   </si>
 </sst>
 </file>
@@ -539,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF87F7AE-31A1-4258-A843-2616A13931FE}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,24 +577,24 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="C2" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2">
         <v>21</v>
@@ -606,30 +606,30 @@
         <v>46</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I2" s="3">
         <v>6553</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2">
         <v>21</v>
@@ -641,30 +641,30 @@
         <v>10</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2">
         <v>15</v>
@@ -676,30 +676,30 @@
         <v>10</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2">
         <v>1700</v>
@@ -711,30 +711,30 @@
         <v>43</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I5" s="3">
         <v>2700</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E6" s="2">
         <v>39</v>
@@ -746,30 +746,30 @@
         <v>19</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I6" s="3">
         <v>4712</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E7" s="2">
         <v>57</v>
@@ -781,16 +781,16 @@
         <v>37</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I7" s="3">
         <v>4888</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/backend/jupyter/action_volume/data/player_action_hyper.xlsx
+++ b/backend/jupyter/action_volume/data/player_action_hyper.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\okany\Documents\GitHub\football-simulation-game\backend\jupyter\action_volume\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B0B6F6-9689-4AC9-8887-01DC5F5DDF94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6F7AE3-653F-4ED1-9B34-65B70FD7477C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1830" windowWidth="23445" windowHeight="12960" xr2:uid="{80BC0565-8455-4789-85AC-BADDCAB4FB5F}"/>
+    <workbookView xWindow="2715" yWindow="1710" windowWidth="23445" windowHeight="12960" xr2:uid="{80BC0565-8455-4789-85AC-BADDCAB4FB5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -540,12 +540,13 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">

--- a/backend/jupyter/action_volume/data/player_action_hyper.xlsx
+++ b/backend/jupyter/action_volume/data/player_action_hyper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\okany\Documents\GitHub\football-simulation-game\backend\jupyter\action_volume\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6F7AE3-653F-4ED1-9B34-65B70FD7477C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AECAD21-12DE-4338-BB44-0213BFE19EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2715" yWindow="1710" windowWidth="23445" windowHeight="12960" xr2:uid="{80BC0565-8455-4789-85AC-BADDCAB4FB5F}"/>
   </bookViews>
@@ -539,7 +539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF87F7AE-31A1-4258-A843-2616A13931FE}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
